--- a/data/metadata/Informe-03-030016-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030016-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>indice-de-envejecimiento</t>
   </si>
@@ -97,7 +97,7 @@
     <t>iaest-measure:-de-poblacion-menor-de-35</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:residencia-comarca-nombre</t>
   </si>
   <si>
     <t>iaest-measure:personas</t>
@@ -106,7 +106,7 @@
     <t>iaest-measure:-de-poblacion-menor-de-25</t>
   </si>
   <si>
-    <t>iaest-dimension:residencia-ccaa-nombre</t>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
   </si>
   <si>
     <t>iaest-measure:-de-poblacion-menor-de-15</t>
@@ -115,7 +115,7 @@
     <t>iaest-measure:-de-poblacion-de-65-y-mas-anos</t>
   </si>
   <si>
-    <t>iaest-dimension:tipo-de-nacionalidad</t>
+    <t>iaest-measure:tipo-de-nacionalidad</t>
   </si>
   <si>
     <t>iaest-measure:-de-poblacion-de-20-a-64-anos</t>
@@ -127,6 +127,9 @@
     <t>iaest-measure:residencia-municipio-nombre</t>
   </si>
   <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
     <t>medida</t>
   </si>
   <si>
@@ -139,19 +142,7 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-residencia-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-tipo-de-nacionalidad.xlsx</t>
   </si>
 </sst>
 </file>
@@ -338,48 +329,48 @@
         <v>37</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>39</v>
@@ -394,13 +385,13 @@
         <v>22</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>39</v>
@@ -408,43 +399,43 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>41</v>
@@ -459,27 +450,21 @@
         <v>22</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030016-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030016-A-TC-TM-TP.xlsx
@@ -11,135 +11,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
-  <si>
-    <t>indice-de-envejecimiento</t>
-  </si>
-  <si>
-    <t>residencia-comarca-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>edad-media-de-la-poblacion</t>
-  </si>
-  <si>
-    <t>-de-poblacion-de-0-a-19-anos</t>
-  </si>
-  <si>
-    <t>-de-poblacion-menor-de-45</t>
-  </si>
-  <si>
-    <t>-de-poblacion-menor-de-35</t>
-  </si>
-  <si>
-    <t>residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>personas</t>
-  </si>
-  <si>
-    <t>-de-poblacion-menor-de-25</t>
-  </si>
-  <si>
-    <t>residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>-de-poblacion-menor-de-15</t>
-  </si>
-  <si>
-    <t>-de-poblacion-de-65-y-mas-anos</t>
-  </si>
-  <si>
-    <t>tipo-de-nacionalidad</t>
-  </si>
-  <si>
-    <t>residencia-municipio-codigo</t>
-  </si>
-  <si>
-    <t>residencia-ccaa-codigo</t>
-  </si>
-  <si>
-    <t>residencia-provincia-codigo</t>
-  </si>
-  <si>
-    <t>-de-poblacion-de-20-a-64-anos</t>
-  </si>
-  <si>
-    <t>tasa-de-masculinidad</t>
-  </si>
-  <si>
-    <t>residencia-municipio-nombre</t>
-  </si>
-  <si>
-    <t>residencia-provincia-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+  <si>
+    <t>Tasa de masculinidad</t>
+  </si>
+  <si>
+    <t>Tipo de nacionalidad</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>% de población menor de 25</t>
+  </si>
+  <si>
+    <t>% de población menor de 15</t>
+  </si>
+  <si>
+    <t>Residencia comarca código</t>
+  </si>
+  <si>
+    <t>Edad media de la población</t>
+  </si>
+  <si>
+    <t>Residencia CCAA nombre</t>
+  </si>
+  <si>
+    <t>% de población de 0 a 19 años</t>
+  </si>
+  <si>
+    <t>Residencia provincia nombre</t>
+  </si>
+  <si>
+    <t>% de población de 65 y más años</t>
+  </si>
+  <si>
+    <t>Residencia CCAA código</t>
+  </si>
+  <si>
+    <t>Residencia municipio código</t>
+  </si>
+  <si>
+    <t>Residencia provincia código</t>
+  </si>
+  <si>
+    <t>Índice de envejecimiento</t>
+  </si>
+  <si>
+    <t>Residencia municipio nombre</t>
+  </si>
+  <si>
+    <t>% de población de 20 a 64 años</t>
+  </si>
+  <si>
+    <t>% de población menor de 45</t>
+  </si>
+  <si>
+    <t>Residencia comarca nombre</t>
+  </si>
+  <si>
+    <t>% de población menor de 35</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>iaest-measure:tasa-de-masculinidad</t>
+  </si>
+  <si>
+    <t>iaest-measure:tipo-de-nacionalidad</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-menor-de-25</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-menor-de-15</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad-media-de-la-poblacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-de-0-a-19-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-de-65-y-mas-anos</t>
   </si>
   <si>
     <t>iaest-measure:indice-de-envejecimiento</t>
   </si>
   <si>
-    <t>null</t>
+    <t>iaest-measure:residencia-municipio-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-de-20-a-64-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-menor-de-45</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-comarca-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-menor-de-35</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:edad-media-de-la-poblacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:-de-poblacion-de-0-a-19-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:-de-poblacion-menor-de-45</t>
-  </si>
-  <si>
-    <t>iaest-measure:-de-poblacion-menor-de-35</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas</t>
-  </si>
-  <si>
-    <t>iaest-measure:-de-poblacion-menor-de-25</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:-de-poblacion-menor-de-15</t>
-  </si>
-  <si>
-    <t>iaest-measure:-de-poblacion-de-65-y-mas-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:tipo-de-nacionalidad</t>
-  </si>
-  <si>
-    <t>iaest-measure:-de-poblacion-de-20-a-64-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:tasa-de-masculinidad</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-provincia-nombre</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -302,22 +308,22 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>35</v>
@@ -337,64 +343,64 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -402,69 +408,69 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>43</v>
+      <c r="U5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030016-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030016-A-TC-TM-TP.xlsx
@@ -85,10 +85,10 @@
     <t>personas</t>
   </si>
   <si>
-    <t>porcentaje-de-poblacion-menor-de-25</t>
-  </si>
-  <si>
-    <t>porcentaje-de-poblacion-menor-de-15</t>
+    <t>de-poblacion-menor-de-25</t>
+  </si>
+  <si>
+    <t>de-poblacion-menor-de-15</t>
   </si>
   <si>
     <t>residencia-comarca-codigo</t>
@@ -100,13 +100,13 @@
     <t>residencia-ccaa-nombre</t>
   </si>
   <si>
-    <t>porcentaje-de-poblacion-de-0-a-19-anos</t>
+    <t>de-poblacion-de-0-a-19-anos</t>
   </si>
   <si>
     <t>residencia-provincia-nombre</t>
   </si>
   <si>
-    <t>porcentaje-de-poblacion-de-65-y-mas-anos</t>
+    <t>de-poblacion-de-65-y-mas-anos</t>
   </si>
   <si>
     <t>residencia-ccaa-codigo</t>
@@ -124,16 +124,16 @@
     <t>residencia-municipio-nombre</t>
   </si>
   <si>
-    <t>porcentaje-de-poblacion-de-20-a-64-anos</t>
-  </si>
-  <si>
-    <t>porcentaje-de-poblacion-menor-de-45</t>
+    <t>de-poblacion-de-20-a-64-anos</t>
+  </si>
+  <si>
+    <t>de-poblacion-menor-de-45</t>
   </si>
   <si>
     <t>residencia-comarca-nombre</t>
   </si>
   <si>
-    <t>porcentaje-de-poblacion-menor-de-35</t>
+    <t>de-poblacion-menor-de-35</t>
   </si>
   <si>
     <t>ano</t>
@@ -148,10 +148,10 @@
     <t>iaest-measure:personas</t>
   </si>
   <si>
-    <t>iaest-measure:porcentaje-de-poblacion-menor-de-25</t>
-  </si>
-  <si>
-    <t>iaest-measure:porcentaje-de-poblacion-menor-de-15</t>
+    <t>iaest-measure:de-poblacion-menor-de-25</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-menor-de-15</t>
   </si>
   <si>
     <t>null</t>
@@ -163,22 +163,22 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-measure:porcentaje-de-poblacion-de-0-a-19-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:porcentaje-de-poblacion-de-65-y-mas-anos</t>
+    <t>iaest-measure:de-poblacion-de-0-a-19-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-de-65-y-mas-anos</t>
   </si>
   <si>
     <t>iaest-measure:indice-de-envejecimiento</t>
   </si>
   <si>
-    <t>iaest-measure:porcentaje-de-poblacion-de-20-a-64-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:porcentaje-de-poblacion-menor-de-45</t>
-  </si>
-  <si>
-    <t>iaest-measure:porcentaje-de-poblacion-menor-de-35</t>
+    <t>iaest-measure:de-poblacion-de-20-a-64-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-menor-de-45</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-poblacion-menor-de-35</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
@@ -238,17 +238,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,15 +263,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
